--- a/pyceae/forms_ceae.xlsx
+++ b/pyceae/forms_ceae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\pyceae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6260D0DF-6EAB-4061-B75B-990924869713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91553D36-0C8B-422A-9912-25D97E7ED129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4530" yWindow="3165" windowWidth="9600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -479,189 +479,6 @@
   </si>
   <si>
     <t>Extrabom (Goiabeiras)</t>
-  </si>
-  <si>
-    <t>11.98</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>18.59</t>
-  </si>
-  <si>
-    <t>6.79</t>
-  </si>
-  <si>
-    <t>3.59</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>3.79</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>8.99</t>
-  </si>
-  <si>
-    <t>9.39</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
-    <t>3.49</t>
-  </si>
-  <si>
-    <t>3.68</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>11.99</t>
-  </si>
-  <si>
-    <t>5.39</t>
-  </si>
-  <si>
-    <t>10.99</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>5.29</t>
-  </si>
-  <si>
-    <t>19.98</t>
-  </si>
-  <si>
-    <t>17.99</t>
-  </si>
-  <si>
-    <t>21.90</t>
-  </si>
-  <si>
-    <t>26.90</t>
-  </si>
-  <si>
-    <t>33.90</t>
-  </si>
-  <si>
-    <t>29.90</t>
-  </si>
-  <si>
-    <t>20.90</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>35.90</t>
-  </si>
-  <si>
-    <t>43.90</t>
-  </si>
-  <si>
-    <t>39.90</t>
-  </si>
-  <si>
-    <t>50.90</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>5.49</t>
-  </si>
-  <si>
-    <t>2.49</t>
-  </si>
-  <si>
-    <t>6.99</t>
-  </si>
-  <si>
-    <t>7.99</t>
-  </si>
-  <si>
-    <t>13.90</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>6.69</t>
-  </si>
-  <si>
-    <t>5.19</t>
-  </si>
-  <si>
-    <t>5.69</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>44.90</t>
-  </si>
-  <si>
-    <t>26.79</t>
   </si>
   <si>
     <t>Confirmo o preenchimento do formulário.</t>
@@ -1021,9 +838,9 @@
   </sheetPr>
   <dimension ref="A1:FT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1108,13 +925,13 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>25</v>
@@ -1225,13 +1042,13 @@
         <v>60</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>61</v>
@@ -1270,22 +1087,22 @@
         <v>72</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="CH1" s="1" t="s">
         <v>73</v>
@@ -1357,7 +1174,7 @@
         <v>95</v>
       </c>
       <c r="DE1" s="6" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="DF1" s="1" t="s">
         <v>96</v>
@@ -1372,13 +1189,13 @@
         <v>99</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="DK1" s="6" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="DL1" s="6" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="DM1" s="1" t="s">
         <v>100</v>
@@ -1405,7 +1222,7 @@
         <v>107</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="DV1" s="6" t="s">
         <v>108</v>
@@ -1486,13 +1303,13 @@
         <v>133</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="EY1" s="1" t="s">
         <v>134</v>
@@ -1522,13 +1339,13 @@
         <v>142</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="FK1" s="1" t="s">
         <v>143</v>
@@ -1537,7 +1354,7 @@
         <v>144</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="FN1" s="1" t="s">
         <v>145</v>
@@ -1546,7 +1363,7 @@
         <v>146</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="FQ1" s="1" t="s">
         <v>147</v>
@@ -1574,393 +1391,135 @@
       <c r="D2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BH2" s="5">
-        <v>300</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BJ2" s="5">
-        <v>250</v>
-      </c>
-      <c r="BK2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL2" s="5">
-        <v>210</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CC2" s="5">
-        <v>162</v>
-      </c>
-      <c r="CD2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="CE2" s="5">
-        <v>162</v>
-      </c>
-      <c r="CH2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="CI2" s="5">
-        <v>200</v>
-      </c>
-      <c r="CJ2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="CK2" s="5">
-        <v>200</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="CO2" s="5">
-        <v>140</v>
-      </c>
-      <c r="CP2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CQ2" s="5">
-        <v>140</v>
-      </c>
-      <c r="CR2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="CS2" s="5">
-        <v>140</v>
-      </c>
-      <c r="CT2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CU2" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="CV2" s="5">
-        <v>500</v>
-      </c>
-      <c r="CW2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="CX2" s="5">
-        <v>550</v>
-      </c>
-      <c r="DA2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DB2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="DC2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="DD2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="DE2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="DG2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DM2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="DN2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="DO2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="DP2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="DQ2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="DS2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="DV2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="DW2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="DY2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="DZ2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="EA2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="EB2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="EE2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="EF2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="EH2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="EI2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="EJ2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EK2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EL2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="EM2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="EN2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="EO2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EP2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EQ2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="ER2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="ES2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="ET2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="EU2" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="EV2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EW2" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="EY2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="EZ2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="FB2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="FC2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="FE2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="FF2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="FG2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="FH2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="FI2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="FJ2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="FK2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL2" s="5">
-        <v>330</v>
-      </c>
-      <c r="FM2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="FN2" s="5">
-        <v>330</v>
-      </c>
-      <c r="FO2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="FP2" s="5">
-        <v>330</v>
-      </c>
-      <c r="FQ2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="FR2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="FT2" s="4" t="s">
-        <v>214</v>
-      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="5"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="5"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="5"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
+      <c r="DP2" s="4"/>
+      <c r="DQ2" s="4"/>
+      <c r="DS2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+      <c r="EM2" s="4"/>
+      <c r="EN2" s="4"/>
+      <c r="EO2" s="4"/>
+      <c r="EP2" s="4"/>
+      <c r="EQ2" s="4"/>
+      <c r="ER2" s="4"/>
+      <c r="ES2" s="4"/>
+      <c r="ET2" s="4"/>
+      <c r="EU2" s="4"/>
+      <c r="EV2" s="4"/>
+      <c r="EW2" s="4"/>
+      <c r="EY2" s="4"/>
+      <c r="EZ2" s="4"/>
+      <c r="FB2" s="4"/>
+      <c r="FC2" s="4"/>
+      <c r="FD2" s="4"/>
+      <c r="FE2" s="4"/>
+      <c r="FF2" s="4"/>
+      <c r="FG2" s="4"/>
+      <c r="FH2" s="4"/>
+      <c r="FI2" s="4"/>
+      <c r="FJ2" s="4"/>
+      <c r="FK2" s="4"/>
+      <c r="FL2" s="5"/>
+      <c r="FM2" s="4"/>
+      <c r="FN2" s="5"/>
+      <c r="FO2" s="4"/>
+      <c r="FP2" s="5"/>
+      <c r="FQ2" s="4"/>
+      <c r="FR2" s="4"/>
+      <c r="FT2" s="4"/>
     </row>
     <row r="3" spans="1:176" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1970,13 +1529,13 @@
         <v>43810</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="FT3" s="4" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
